--- a/Figure1C_Expression_CPM.xlsx
+++ b/Figure1C_Expression_CPM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20150013\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59577785-23C4-4B25-B8E3-3E7D117C0CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA4858-0F1C-4B2C-806F-92C8F504832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{473838A0-3647-4B33-A2CE-6573173065A7}"/>
+    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{473838A0-3647-4B33-A2CE-6573173065A7}"/>
   </bookViews>
   <sheets>
     <sheet name="HepG2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>gene_id</t>
   </si>
@@ -59,24 +59,6 @@
     <t>SRR16071318.fastq</t>
   </si>
   <si>
-    <t>Novel 4</t>
-  </si>
-  <si>
-    <t>APOC3.205</t>
-  </si>
-  <si>
-    <t>Novel 2</t>
-  </si>
-  <si>
-    <t>Novel 1</t>
-  </si>
-  <si>
-    <t>APOC3201</t>
-  </si>
-  <si>
-    <t>Novel 3</t>
-  </si>
-  <si>
     <t>SRR22020440.fastq</t>
   </si>
   <si>
@@ -92,15 +74,6 @@
     <t>ERR13885921.fastq</t>
   </si>
   <si>
-    <t>APOC3.201</t>
-  </si>
-  <si>
-    <t>APOC3.202</t>
-  </si>
-  <si>
-    <t>Novel</t>
-  </si>
-  <si>
     <t>Isoform</t>
   </si>
   <si>
@@ -120,19 +93,34 @@
   </si>
   <si>
     <t>Novel-3</t>
+  </si>
+  <si>
+    <t>APOC3-202</t>
+  </si>
+  <si>
+    <t>APOC3-205</t>
+  </si>
+  <si>
+    <t>Novel-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,15 +480,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FBB99-6481-49D3-B598-202DF1855FBF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,124 +511,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>12.6558758067402</v>
+        <v>337.64626629999998</v>
       </c>
       <c r="C2">
-        <v>15.2808127169702</v>
+        <v>178.31183609999999</v>
       </c>
       <c r="D2">
-        <v>32.310647489220401</v>
+        <v>180.6710683</v>
       </c>
       <c r="E2">
-        <v>8.1669543249467793</v>
+        <v>186.3865346</v>
       </c>
       <c r="F2">
-        <v>7.5594589241680401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193.09390619999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>2.3010683284982099</v>
+        <v>4.0388309360000001</v>
       </c>
       <c r="C3">
-        <v>2.7783295849036702</v>
+        <v>1.361159054</v>
       </c>
       <c r="D3">
-        <v>4.0388309361525403</v>
+        <v>3.7797294620000002</v>
       </c>
       <c r="E3">
-        <v>1.3611590541578</v>
+        <v>2.3010683279999999</v>
       </c>
       <c r="F3">
-        <v>3.7797294620840201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.7783295849999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>50.048236144836103</v>
+        <v>7.2698956849999998</v>
       </c>
       <c r="C4">
-        <v>88.211964320691493</v>
+        <v>4.0834771620000003</v>
       </c>
       <c r="D4">
-        <v>111.47173383781001</v>
+        <v>5.2916212470000001</v>
       </c>
       <c r="E4">
-        <v>87.114179466099003</v>
+        <v>7.4784720680000003</v>
       </c>
       <c r="F4">
-        <v>67.279184425095593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.9458239620000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>7.4784720676191903</v>
+        <v>111.4717338</v>
       </c>
       <c r="C5">
-        <v>6.94582396225917</v>
+        <v>87.114179469999996</v>
       </c>
       <c r="D5">
-        <v>7.2698956850745802</v>
+        <v>67.279184430000001</v>
       </c>
       <c r="E5">
-        <v>4.0834771624733897</v>
+        <v>50.04823614</v>
       </c>
       <c r="F5">
-        <v>5.2916212469176296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88.211964320000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>186.38653460835499</v>
+        <v>30.69511511</v>
       </c>
       <c r="C6">
-        <v>193.093906150805</v>
+        <v>16.333908650000001</v>
       </c>
       <c r="D6">
-        <v>337.64626626235298</v>
+        <v>27.969998019999998</v>
       </c>
       <c r="E6">
-        <v>178.31183609467101</v>
+        <v>27.612819940000001</v>
       </c>
       <c r="F6">
-        <v>180.67106828761601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>27.6128199419786</v>
-      </c>
-      <c r="C7">
-        <v>20.1428894905516</v>
-      </c>
-      <c r="D7">
-        <v>30.6951151147593</v>
-      </c>
-      <c r="E7">
-        <v>16.333908649893601</v>
-      </c>
-      <c r="F7">
-        <v>27.969998019421801</v>
+        <v>20.142889490000002</v>
       </c>
     </row>
   </sheetData>
@@ -649,79 +621,79 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>24.815767740296</v>
+        <v>66.506257539999993</v>
       </c>
       <c r="C2">
-        <v>25.615273533765698</v>
+        <v>77.913123670000004</v>
       </c>
       <c r="D2">
-        <v>29.784897195565801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78.185355139999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>66.506257543993399</v>
+        <v>3.9705228379999999</v>
       </c>
       <c r="C3">
-        <v>77.913123665204097</v>
+        <v>5.3365153200000002</v>
       </c>
       <c r="D3">
-        <v>78.185355138360194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7231121489999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>53.6020583190395</v>
+        <v>53.602058319999998</v>
       </c>
       <c r="C4">
-        <v>67.240093026135099</v>
+        <v>67.240093029999997</v>
       </c>
       <c r="D4">
-        <v>52.123570092240101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52.123570090000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>3.9705228384473701</v>
+        <v>24.815767739999998</v>
       </c>
       <c r="C5">
-        <v>5.3365153195345298</v>
+        <v>25.61527353</v>
       </c>
       <c r="D5">
-        <v>3.7231121494457202</v>
+        <v>29.7848972</v>
       </c>
     </row>
   </sheetData>
@@ -731,125 +703,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99C0EA-9AEB-4575-80D0-07C5DA958F3E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>2342.2671180000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3666.6303370000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.00354835</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.8030574479999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.610039059</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.9538478359999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.1262658310000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.47651845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>5.6100390587597797</v>
-      </c>
-      <c r="C2">
-        <v>8.9538478360565907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>887.44753002489097</v>
-      </c>
-      <c r="C3">
-        <v>1508.8123058838401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>16.6784944990155</v>
-      </c>
-      <c r="C4">
-        <v>19.093635782849098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="1">
+        <v>887.44753000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1508.812306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>2342.2671183708399</v>
-      </c>
-      <c r="C5">
-        <v>3666.6303373679398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>5.00354834970467</v>
-      </c>
-      <c r="C6">
-        <v>4.8030574484806898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>4.5486803179133304</v>
-      </c>
-      <c r="C7">
-        <v>8.3015807751518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>25.169364425787101</v>
-      </c>
-      <c r="C8">
-        <v>44.413457147062097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7.12626583139755</v>
-      </c>
-      <c r="C9">
-        <v>15.4765184451044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>30.855214823178802</v>
-      </c>
-      <c r="C10">
-        <v>31.723897962187198</v>
+      <c r="B7" s="1">
+        <v>30.85521482</v>
+      </c>
+      <c r="C7" s="1">
+        <v>31.723897959999999</v>
       </c>
     </row>
   </sheetData>
@@ -865,25 +804,25 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>368.10325890000001</v>
@@ -895,9 +834,9 @@
         <v>590.38476319999995</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>295.37317949999999</v>
@@ -909,9 +848,9 @@
         <v>300.43248299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>121.71156139999999</v>
